--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2764973.908868326</v>
+        <v>2758622.166327193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7744686.575345076</v>
+        <v>7744096.595954657</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.36700339566</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>134.0602909782894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023833921</v>
+        <v>74.86702424530723</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159216</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>186.1209724651099</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779444</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.5430355071382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.5455068079473</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899916</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>61.39345098864461</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>50.45841424170608</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>74.07584602384601</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>57.2080685894951</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219309</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>294.8229757007971</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799151</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
         <v>60.08550749219394</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.92391191189584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443491</v>
+        <v>48.81858568179597</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782429</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.4732329281067</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994642</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282553</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.7228416125928</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498494</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.89393170155698</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272891</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184828</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.75808915271215</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921322</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -3797,16 +3797,16 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>67.06582081829507</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892491</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.58521707214845</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
-        <v>106.3740388304719</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.8890990341564</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443881</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627853</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915765</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892491</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131705</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788909</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906102</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351694</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
@@ -4198,7 +4198,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161667</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>242.2021271932851</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>735.5224189118139</v>
       </c>
       <c r="M2" t="n">
-        <v>1420.616275678884</v>
+        <v>1236.689201907265</v>
       </c>
       <c r="N2" t="n">
-        <v>1946.43916507474</v>
+        <v>1236.689201907265</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.53692685194</v>
+        <v>1676.728802799593</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078512</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637929</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072528</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.670316776046</v>
+        <v>999.0496848552215</v>
       </c>
       <c r="W2" t="n">
-        <v>727.6712817443336</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>338.2186766773904</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.8042413457849</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163348</v>
+        <v>657.7430775364719</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576427</v>
+        <v>507.0888470965641</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979074</v>
+        <v>376.9998797180444</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087951</v>
+        <v>240.5533888289322</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192689</v>
+        <v>116.121582712064</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.179394016663</v>
       </c>
       <c r="M3" t="n">
-        <v>968.0301839896707</v>
+        <v>637.179394016663</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896707</v>
+        <v>1138.346177012114</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659827</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.10224989849</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031777</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817889</v>
+        <v>837.0572944609646</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572962</v>
+        <v>657.7430775364719</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>521.8564565735845</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>521.8564565735845</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="D4" t="n">
-        <v>366.2233434760993</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="E4" t="n">
-        <v>366.2233434760993</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="F4" t="n">
-        <v>366.2233434760993</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>70.87659607252036</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>755.9367787906015</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>755.9367787906015</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>755.9367787906015</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>521.8564565735845</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="Y4" t="n">
-        <v>521.8564565735845</v>
+        <v>296.8865154828869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733631</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733631</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.131457402513</v>
+        <v>551.2091433733631</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>551.2091433733631</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>538.3551089437449</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>125.192353431748</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>810.4869444322344</v>
+        <v>990.716459663194</v>
       </c>
       <c r="M5" t="n">
-        <v>810.4869444322344</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828089</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720418</v>
+        <v>1491.883242658645</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>1840.070734790167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S5" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T5" t="n">
-        <v>1863.043410696878</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U5" t="n">
-        <v>1863.043410696878</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="V5" t="n">
-        <v>1863.043410696878</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="W5" t="n">
-        <v>1863.043410696878</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="X5" t="n">
-        <v>1863.043410696878</v>
+        <v>951.7038890847599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.62620311391</v>
+        <v>951.7038890847599</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622237</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223159</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437962</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546839</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378157</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620968018</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620968018</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703879</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992652</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>362.2298845992652</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M6" t="n">
-        <v>888.0527739951203</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896707</v>
+        <v>1458.085323074341</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1619.294926214718</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327678</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.860323403185</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.1216772611406</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="C7" t="n">
-        <v>741.1216772611406</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="D7" t="n">
-        <v>741.1216772611406</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E7" t="n">
-        <v>585.5628651203431</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F7" t="n">
-        <v>428.236930333316</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G7" t="n">
-        <v>259.9828764327616</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H7" t="n">
-        <v>104.5043253942556</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>741.1216772611406</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>741.1216772611406</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>741.1216772611406</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>741.1216772611406</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>741.1216772611406</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>778.8135352195961</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>778.8135352195961</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1179.308280930993</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1179.308280930993</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536175</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3034.383511434015</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.217383424722</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.369503984579</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550995</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082772</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5224,7 +5224,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.523084255381</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592126</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.555966302389</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1552.555966302389</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1262.055518806245</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>954.412675209978</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>632.4589180271441</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.230336043088</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.171982298564</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2159.660058518809</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.110030726598</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551005</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5461,7 +5461,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,16 +5674,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222413</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.46733722469</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,16 +6072,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222409</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960407</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343048</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>683.142663665514</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6230,19 +6230,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6625,10 +6625,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6646,25 +6646,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144925</v>
+        <v>890.2201666674341</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423743</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209951</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2356.288247000678</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2796.327847893007</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011324</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435851</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>871.8478593435851</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554797</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715336</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.252730224113</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333801</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964177</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.44278775748644</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>97.17577828919951</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>287.5013270395272</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>451.628966913327</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>637.920545251591</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>929.600686923186</v>
+        <v>810.7134513543754</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.79596160528</v>
+        <v>1088.287753884382</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022244</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448295</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157184</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969607</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.6036317300084</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.6934228967164</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7257,10 +7257,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>830.5413617456916</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
         <v>1458.313011372373</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899325</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.435967392389</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.43609059919</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058682</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259791</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2753.842303828244</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.284520786665</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709855</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.223710620589</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>96.81867335321709</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743929</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529107</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1586.170216899326</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.43596739239</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.436090599191</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
         <v>697.2938177058682</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2998.507861134593</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.842303828245</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.284520786666</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.273167709855</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.22371062059</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7783,37 +7783,37 @@
         <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832567</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325924</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
         <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690444</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.2319501674404</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529118</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022411</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160347</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
         <v>1065.684527822773</v>
@@ -7843,7 +7843,7 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557616</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
         <v>689.0179479288779</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.6887348821007</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107123</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>329.4605664919754</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>101.5984667688723</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869455</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532458</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>420.2825909011035</v>
+        <v>604.3451443045136</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622968</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>166.1573754749246</v>
+        <v>591.6011865869455</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.525541858967</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,7 +8535,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,19 +9720,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095476</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>543.2755872400996</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>124.646981443537</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>216.0897016175839</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.597567102697212e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385697</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>20.21687778176326</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213457</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822795</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812808</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>175.1530809149899</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531186</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822795</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.42471811547376</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>677947.0580636958</v>
+        <v>677646.2842568157</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>677947.0580636958</v>
+        <v>677646.2842568157</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639965.9469201381</v>
+        <v>639965.9469201382</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642700.084679877</v>
+        <v>642700.0846798769</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642700.084679877</v>
+        <v>642700.0846798768</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595096.1877080774</v>
+      </c>
+      <c r="C2" t="n">
         <v>595096.1877080777</v>
       </c>
-      <c r="C2" t="n">
-        <v>595096.1877080774</v>
-      </c>
       <c r="D2" t="n">
-        <v>595096.1877080775</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="E2" t="n">
-        <v>559271.2048546862</v>
+        <v>559271.2048546864</v>
       </c>
       <c r="F2" t="n">
-        <v>559271.2048546866</v>
+        <v>559271.2048546864</v>
       </c>
       <c r="G2" t="n">
         <v>595096.1877080778</v>
@@ -26332,22 +26332,22 @@
         <v>595096.1877080778</v>
       </c>
       <c r="I2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.187708078</v>
       </c>
       <c r="J2" t="n">
+        <v>595096.1877080771</v>
+      </c>
+      <c r="K2" t="n">
+        <v>595096.1877080768</v>
+      </c>
+      <c r="L2" t="n">
         <v>595096.187708077</v>
       </c>
-      <c r="K2" t="n">
-        <v>595096.1877080771</v>
-      </c>
-      <c r="L2" t="n">
-        <v>595096.1877080774</v>
-      </c>
       <c r="M2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="N2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080778</v>
       </c>
       <c r="O2" t="n">
         <v>561709.7601539132</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941804</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670121</v>
+        <v>46725.80335481234</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015682</v>
+        <v>18983.55983015685</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066574</v>
+        <v>187720.9480760003</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066575</v>
+        <v>187720.9480760003</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26454,10 +26454,10 @@
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>111818.0002629858</v>
+        <v>111818.0002629859</v>
       </c>
       <c r="P4" t="n">
-        <v>111818.0002629858</v>
+        <v>111818.0002629859</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169870.7816789202</v>
+        <v>173319.9060725741</v>
       </c>
       <c r="C6" t="n">
-        <v>347866.0788132704</v>
+        <v>342968.9119491244</v>
       </c>
       <c r="D6" t="n">
-        <v>340994.5577275961</v>
+        <v>333258.2685042049</v>
       </c>
       <c r="E6" t="n">
-        <v>263562.5998440704</v>
+        <v>263454.0392899695</v>
       </c>
       <c r="F6" t="n">
-        <v>394015.5309817831</v>
+        <v>393906.9704276816</v>
       </c>
       <c r="G6" t="n">
-        <v>373083.7575120673</v>
+        <v>373083.7575120674</v>
       </c>
       <c r="H6" t="n">
         <v>402178.7133850817</v>
       </c>
       <c r="I6" t="n">
-        <v>402178.7133850815</v>
+        <v>402178.7133850819</v>
       </c>
       <c r="J6" t="n">
-        <v>174093.0700353314</v>
+        <v>180609.3551899046</v>
       </c>
       <c r="K6" t="n">
-        <v>395938.9449822981</v>
+        <v>395938.9449822977</v>
       </c>
       <c r="L6" t="n">
-        <v>357044.5980497102</v>
+        <v>352995.7608392376</v>
       </c>
       <c r="M6" t="n">
-        <v>359447.436450713</v>
+        <v>358395.7414395249</v>
       </c>
       <c r="N6" t="n">
-        <v>402178.7133850816</v>
+        <v>402178.7133850818</v>
       </c>
       <c r="O6" t="n">
-        <v>375587.7922782198</v>
+        <v>375486.6212856313</v>
       </c>
       <c r="P6" t="n">
-        <v>394571.3521083764</v>
+        <v>394470.1811157879</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.877684307862</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087651</v>
+        <v>58.40725419351543</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165935</v>
+        <v>14.33013548902044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769603</v>
+        <v>23.72944978769607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559191</v>
+        <v>646.8007142757131</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045525</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857354</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>258.4655110103155</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051499</v>
+        <v>43.99219550354697</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>96.46343137540816</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713798</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>206.9827664814667</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026022</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,19 +27780,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>70.37003012064827</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>335.0996647745677</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28746,10 +28746,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529177</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,25 +28986,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668788</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29302,7 +29302,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,13 +29311,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>98.75804948161095</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>103.2865954513736</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>58.99686212483995</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>13.98970481639711</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693055</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561693151</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693167</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693103</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023186</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.6303317028633</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>179.8967290678791</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>9.211344719560405</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643569</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>267.0344211706118</v>
+        <v>451.0969745740219</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>80.78526262075796</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700781</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133915</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,13 +36607,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,22 +37072,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988362</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>450.4625869881987</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>289.9992824624327</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.145010255381</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.92237465268088</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.248029040735</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>199.0297391913559</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>453.2152403831814</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>35.0500461102036</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144771482</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548897</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144772601</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918898</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
@@ -38193,7 +38193,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038434</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
